--- a/HW2/HW2 Jobs to be done.xlsx
+++ b/HW2/HW2 Jobs to be done.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Jobs to be done</t>
   </si>
@@ -86,9 +86,6 @@
     <t>after work ends</t>
   </si>
   <si>
-    <t>for leisure activities</t>
-  </si>
-  <si>
     <t>between each coffee drinks</t>
   </si>
   <si>
@@ -99,6 +96,30 @@
   </si>
   <si>
     <t>thinking about new ideas</t>
+  </si>
+  <si>
+    <t>Job Type</t>
+  </si>
+  <si>
+    <t>Social</t>
+  </si>
+  <si>
+    <t>Functional</t>
+  </si>
+  <si>
+    <t>Emotional</t>
+  </si>
+  <si>
+    <t>for leisure activities I like</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>for exercise after the day ends</t>
+  </si>
+  <si>
+    <t>so I can get in shape</t>
   </si>
 </sst>
 </file>
@@ -433,36 +454,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -472,8 +493,11 @@
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -486,8 +510,11 @@
       <c r="D5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -497,8 +524,11 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>13</v>
       </c>
@@ -508,8 +538,11 @@
       <c r="D7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -519,19 +552,25 @@
       <c r="D8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -542,18 +581,38 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
